--- a/dev/Prime Finder/FindPrimesStats.xlsx
+++ b/dev/Prime Finder/FindPrimesStats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhomer/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhomer/Desktop/repo/dev/Prime Finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EDFD9C-B66E-4E42-BFB9-72388CC821B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345C6F03-E4AF-0249-86E2-0347730D2B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2100" yWindow="1480" windowWidth="14000" windowHeight="17360" xr2:uid="{B966DA35-DC31-D540-B642-10EF1797A304}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>MacMini 6 core i7</t>
   </si>
@@ -151,6 +151,36 @@
   </si>
   <si>
     <t>76.5</t>
+  </si>
+  <si>
+    <t>428.6</t>
+  </si>
+  <si>
+    <t>1442</t>
+  </si>
+  <si>
+    <t>481.9</t>
+  </si>
+  <si>
+    <t>1591</t>
+  </si>
+  <si>
+    <t>1426</t>
+  </si>
+  <si>
+    <t>1614</t>
+  </si>
+  <si>
+    <t>semaphore</t>
+  </si>
+  <si>
+    <t>23.3</t>
+  </si>
+  <si>
+    <t>81.5</t>
+  </si>
+  <si>
+    <t>84.2</t>
   </si>
 </sst>
 </file>
@@ -503,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECF21E9-DCD9-D34D-9864-0C4481914428}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,7 +677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -655,7 +685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -669,7 +699,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -683,7 +713,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -697,54 +727,132 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
